--- a/state_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
+++ b/state_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U279"/>
+  <dimension ref="A1:U299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.60144157065223</v>
+        <v>2.60070125213454</v>
       </c>
       <c r="H2" t="n">
         <v>6.5</v>
@@ -651,7 +651,7 @@
         <v>0.011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.012987635994989</v>
+        <v>0.0129922707846288</v>
       </c>
       <c r="H3" t="n">
         <v>0.055</v>
@@ -732,7 +732,7 @@
         <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.012987635994989</v>
+        <v>0.0129922707846288</v>
       </c>
       <c r="H4" t="n">
         <v>0.055</v>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>37.5626613419993</v>
+        <v>37.5557888035685</v>
       </c>
       <c r="H5" t="n">
         <v>405</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>37.5626613419993</v>
+        <v>37.5557888035685</v>
       </c>
       <c r="H6" t="n">
         <v>405</v>
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>37.5626613419993</v>
+        <v>37.5557888035685</v>
       </c>
       <c r="H7" t="n">
         <v>405</v>
@@ -1068,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>37.5626613419993</v>
+        <v>37.5557888035685</v>
       </c>
       <c r="H8" t="n">
         <v>405</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00057</v>
+        <v>0.00062</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0019021631376949</v>
+        <v>0.0019290912510101</v>
       </c>
       <c r="H9" t="n">
         <v>0.010116577751433</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00164</v>
+        <v>0.00167</v>
       </c>
       <c r="M9" t="n">
         <v>0.00429</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00057</v>
+        <v>0.00062</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0019021631376949</v>
+        <v>0.0019290912510101</v>
       </c>
       <c r="H10" t="n">
         <v>0.010116577751433</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00164</v>
+        <v>0.00167</v>
       </c>
       <c r="M10" t="n">
         <v>0.00429</v>
@@ -1315,7 +1315,7 @@
         <v>0.11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.110911639993064</v>
+        <v>0.11093553868251</v>
       </c>
       <c r="H11" t="n">
         <v>0.33</v>
@@ -1396,7 +1396,7 @@
         <v>0.11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.110911639993064</v>
+        <v>0.11093553868251</v>
       </c>
       <c r="H12" t="n">
         <v>0.33</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1135</v>
+        <v>0.11375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.117513742492994</v>
+        <v>0.117552752560327</v>
       </c>
       <c r="H13" t="n">
         <v>0.335</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.08</v>
+        <v>0.07975</v>
       </c>
       <c r="M13" t="n">
         <v>0.16752</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1135</v>
+        <v>0.11375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.117513742492994</v>
+        <v>0.117552752560327</v>
       </c>
       <c r="H14" t="n">
         <v>0.335</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.08</v>
+        <v>0.07975</v>
       </c>
       <c r="M14" t="n">
         <v>0.16752</v>
@@ -1631,13 +1631,13 @@
         <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.25787993588746</v>
+        <v>3.26436941115155</v>
       </c>
       <c r="H15" t="n">
-        <v>8.80955092543805</v>
+        <v>9.036621171581359</v>
       </c>
       <c r="I15" t="n">
-        <v>7.59978</v>
+        <v>7.97382</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1648,7 +1648,7 @@
         <v>5.775</v>
       </c>
       <c r="N15" t="n">
-        <v>7.21339</v>
+        <v>6.71701</v>
       </c>
       <c r="O15" t="n">
         <v>1858298</v>
@@ -1712,7 +1712,7 @@
         <v>0.01175</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0138945905569016</v>
+        <v>0.0138968779970382</v>
       </c>
       <c r="H16" t="n">
         <v>0.055</v>
@@ -1793,7 +1793,7 @@
         <v>0.01175</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0138945905569016</v>
+        <v>0.0138968779970382</v>
       </c>
       <c r="H17" t="n">
         <v>0.055</v>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.93056</v>
+        <v>8.82077</v>
       </c>
       <c r="G18" t="n">
-        <v>26.7015502308882</v>
+        <v>26.6946776924574</v>
       </c>
       <c r="H18" t="n">
         <v>405</v>
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8.93056</v>
+        <v>8.82077</v>
       </c>
       <c r="G19" t="n">
-        <v>26.7015502308882</v>
+        <v>26.6946776924574</v>
       </c>
       <c r="H19" t="n">
         <v>405</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8.93056</v>
+        <v>8.82077</v>
       </c>
       <c r="G20" t="n">
-        <v>26.7015502308882</v>
+        <v>26.6946776924574</v>
       </c>
       <c r="H20" t="n">
         <v>405</v>
@@ -2126,10 +2126,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.93056</v>
+        <v>8.82077</v>
       </c>
       <c r="G21" t="n">
-        <v>26.7015502308882</v>
+        <v>26.6946776924574</v>
       </c>
       <c r="H21" t="n">
         <v>405</v>
@@ -2211,27 +2211,27 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.00056</v>
+        <v>0.00062</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0015631495901048</v>
+        <v>0.0016290588077405</v>
       </c>
       <c r="H22" t="n">
         <v>0.010116577751433</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00762</v>
+        <v>0.00783</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.00058</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="M22" t="n">
         <v>0.00328</v>
       </c>
       <c r="N22" t="n">
-        <v>0.00583</v>
+        <v>0.00628</v>
       </c>
       <c r="O22" t="n">
         <v>1858298</v>
@@ -2292,27 +2292,27 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.00056</v>
+        <v>0.00062</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0015631495901048</v>
+        <v>0.0016290588077405</v>
       </c>
       <c r="H23" t="n">
         <v>0.010116577751433</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00762</v>
+        <v>0.00783</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00058</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="M23" t="n">
         <v>0.00328</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00583</v>
+        <v>0.00628</v>
       </c>
       <c r="O23" t="n">
         <v>1858298</v>
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1135</v>
+        <v>0.11375</v>
       </c>
       <c r="G24" t="n">
-        <v>0.111291520270772</v>
+        <v>0.111247197004772</v>
       </c>
       <c r="H24" t="n">
         <v>0.335</v>
@@ -2383,10 +2383,10 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.0775</v>
+        <v>0.07725</v>
       </c>
       <c r="M24" t="n">
-        <v>0.15766</v>
+        <v>0.15785</v>
       </c>
       <c r="N24" t="n">
         <v>0.1731</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1135</v>
+        <v>0.11375</v>
       </c>
       <c r="G25" t="n">
-        <v>0.111291520270772</v>
+        <v>0.111247197004772</v>
       </c>
       <c r="H25" t="n">
         <v>0.335</v>
@@ -2460,10 +2460,10 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.0775</v>
+        <v>0.07725</v>
       </c>
       <c r="M25" t="n">
-        <v>0.15766</v>
+        <v>0.15785</v>
       </c>
       <c r="N25" t="n">
         <v>0.1731</v>
@@ -2530,13 +2530,13 @@
         <v>3.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3.62776189710335</v>
+        <v>3.59580388429999</v>
       </c>
       <c r="H26" t="n">
-        <v>8.86403518515047</v>
+        <v>10.8618889925494</v>
       </c>
       <c r="I26" t="n">
-        <v>8.47593</v>
+        <v>8.530469999999999</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2544,10 +2544,10 @@
         <v>4.1</v>
       </c>
       <c r="M26" t="n">
-        <v>6.085</v>
+        <v>6.01586</v>
       </c>
       <c r="N26" t="n">
-        <v>7.61591</v>
+        <v>6.77901</v>
       </c>
       <c r="O26" t="n">
         <v>1858298</v>
@@ -2611,7 +2611,7 @@
         <v>0.0115</v>
       </c>
       <c r="G27" t="n">
-        <v>0.013110750213797</v>
+        <v>0.0131125022956037</v>
       </c>
       <c r="H27" t="n">
         <v>0.055</v>
@@ -2692,7 +2692,7 @@
         <v>0.0115</v>
       </c>
       <c r="G28" t="n">
-        <v>0.013110750213797</v>
+        <v>0.0131125022956037</v>
       </c>
       <c r="H28" t="n">
         <v>0.055</v>
@@ -2773,7 +2773,7 @@
         <v>9</v>
       </c>
       <c r="G29" t="n">
-        <v>35.4309746449357</v>
+        <v>35.4257105729461</v>
       </c>
       <c r="H29" t="n">
         <v>605</v>
@@ -2858,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>35.4309746449357</v>
+        <v>35.4257105729461</v>
       </c>
       <c r="H30" t="n">
         <v>605</v>
@@ -2943,7 +2943,7 @@
         <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>35.4309746449357</v>
+        <v>35.4257105729461</v>
       </c>
       <c r="H31" t="n">
         <v>605</v>
@@ -3028,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="G32" t="n">
-        <v>35.4309746449357</v>
+        <v>35.4257105729461</v>
       </c>
       <c r="H32" t="n">
         <v>605</v>
@@ -3110,13 +3110,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.00068</v>
+        <v>0.00074</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0020065706091457</v>
+        <v>0.0021155010130816</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0153485205390276</v>
+        <v>0.0167924794622668</v>
       </c>
       <c r="I33" t="n">
         <v>0.00847</v>
@@ -3124,13 +3124,13 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00102</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00416</v>
+        <v>0.00437</v>
       </c>
       <c r="N33" t="n">
-        <v>0.00613</v>
+        <v>0.00667</v>
       </c>
       <c r="O33" t="n">
         <v>1858298</v>
@@ -3191,13 +3191,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.00068</v>
+        <v>0.00074</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0020065706091457</v>
+        <v>0.0021155010130816</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0153485205390276</v>
+        <v>0.0167924794622668</v>
       </c>
       <c r="I34" t="n">
         <v>0.00847</v>
@@ -3205,13 +3205,13 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00102</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00416</v>
+        <v>0.00437</v>
       </c>
       <c r="N34" t="n">
-        <v>0.00613</v>
+        <v>0.00667</v>
       </c>
       <c r="O34" t="n">
         <v>1858298</v>
@@ -3275,7 +3275,7 @@
         <v>0.11</v>
       </c>
       <c r="G35" t="n">
-        <v>0.10149673290782</v>
+        <v>0.101552884724259</v>
       </c>
       <c r="H35" t="n">
         <v>0.33</v>
@@ -3356,7 +3356,7 @@
         <v>0.11</v>
       </c>
       <c r="G36" t="n">
-        <v>0.10149673290782</v>
+        <v>0.101552884724259</v>
       </c>
       <c r="H36" t="n">
         <v>0.33</v>
@@ -3430,16 +3430,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.112</v>
+        <v>0.1115</v>
       </c>
       <c r="G37" t="n">
-        <v>0.103755207015911</v>
+        <v>0.103731895578123</v>
       </c>
       <c r="H37" t="n">
         <v>0.335</v>
       </c>
       <c r="I37" t="n">
-        <v>0.17725</v>
+        <v>0.17717</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.112</v>
+        <v>0.1115</v>
       </c>
       <c r="G38" t="n">
-        <v>0.103755207015911</v>
+        <v>0.103731895578123</v>
       </c>
       <c r="H38" t="n">
         <v>0.335</v>
       </c>
       <c r="I38" t="n">
-        <v>0.17725</v>
+        <v>0.17717</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -3588,16 +3588,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G39" t="n">
-        <v>4.15302604076696</v>
+        <v>3.97521715093374</v>
       </c>
       <c r="H39" t="n">
-        <v>12.234403298827</v>
+        <v>10.8618889925494</v>
       </c>
       <c r="I39" t="n">
-        <v>8.828620000000001</v>
+        <v>9.149620000000001</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -3605,10 +3605,10 @@
         <v>4.2</v>
       </c>
       <c r="M39" t="n">
-        <v>7.49937</v>
+        <v>6.11476</v>
       </c>
       <c r="N39" t="n">
-        <v>8.39141</v>
+        <v>8.402240000000001</v>
       </c>
       <c r="O39" t="n">
         <v>1858298</v>
@@ -3672,7 +3672,7 @@
         <v>0.01</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0105074152255356</v>
+        <v>0.0105108997710013</v>
       </c>
       <c r="H40" t="n">
         <v>0.022</v>
@@ -3753,7 +3753,7 @@
         <v>0.01</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0105074152255356</v>
+        <v>0.0105108997710013</v>
       </c>
       <c r="H41" t="n">
         <v>0.022</v>
@@ -3831,10 +3831,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>9.34478</v>
+        <v>9.27736</v>
       </c>
       <c r="G42" t="n">
-        <v>32.2494125085409</v>
+        <v>32.2430229511037</v>
       </c>
       <c r="H42" t="n">
         <v>605</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>9.34478</v>
+        <v>9.27736</v>
       </c>
       <c r="G43" t="n">
-        <v>32.2494125085409</v>
+        <v>32.2430229511037</v>
       </c>
       <c r="H43" t="n">
         <v>605</v>
@@ -4001,10 +4001,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9.34478</v>
+        <v>9.27736</v>
       </c>
       <c r="G44" t="n">
-        <v>32.2494125085409</v>
+        <v>32.2430229511037</v>
       </c>
       <c r="H44" t="n">
         <v>605</v>
@@ -4086,10 +4086,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>9.34478</v>
+        <v>9.27736</v>
       </c>
       <c r="G45" t="n">
-        <v>32.2494125085409</v>
+        <v>32.2430229511037</v>
       </c>
       <c r="H45" t="n">
         <v>605</v>
@@ -4171,13 +4171,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.00079</v>
+        <v>0.00087</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0020499997028638</v>
+        <v>0.0021646873865614</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0153485205390276</v>
+        <v>0.0167924794622668</v>
       </c>
       <c r="I46" t="n">
         <v>0.00848</v>
@@ -4185,13 +4185,13 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.00071</v>
+        <v>0.00076</v>
       </c>
       <c r="M46" t="n">
         <v>0.00381</v>
       </c>
       <c r="N46" t="n">
-        <v>0.00619</v>
+        <v>0.00678</v>
       </c>
       <c r="O46" t="n">
         <v>1858298</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.00079</v>
+        <v>0.00087</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0020499997028638</v>
+        <v>0.0021646873865614</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0153485205390276</v>
+        <v>0.0167924794622668</v>
       </c>
       <c r="I47" t="n">
         <v>0.00848</v>
@@ -4266,13 +4266,13 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.00071</v>
+        <v>0.00076</v>
       </c>
       <c r="M47" t="n">
         <v>0.00381</v>
       </c>
       <c r="N47" t="n">
-        <v>0.00619</v>
+        <v>0.00678</v>
       </c>
       <c r="O47" t="n">
         <v>1858298</v>
@@ -4336,7 +4336,7 @@
         <v>0.099</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0947655577177508</v>
+        <v>0.0947993706174227</v>
       </c>
       <c r="H48" t="n">
         <v>0.33</v>
@@ -4417,7 +4417,7 @@
         <v>0.099</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0947655577177508</v>
+        <v>0.0947993706174227</v>
       </c>
       <c r="H49" t="n">
         <v>0.33</v>
@@ -4491,21 +4491,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.112</v>
+        <v>0.11175</v>
       </c>
       <c r="G50" t="n">
-        <v>0.10704347826087</v>
+        <v>0.107</v>
       </c>
       <c r="H50" t="n">
         <v>0.417</v>
       </c>
       <c r="I50" t="n">
-        <v>0.219</v>
+        <v>0.2186</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.0755</v>
+        <v>0.07525</v>
       </c>
       <c r="M50" t="n">
         <v>0.1534</v>
@@ -4568,21 +4568,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.112</v>
+        <v>0.11175</v>
       </c>
       <c r="G51" t="n">
-        <v>0.10704347826087</v>
+        <v>0.107</v>
       </c>
       <c r="H51" t="n">
         <v>0.417</v>
       </c>
       <c r="I51" t="n">
-        <v>0.219</v>
+        <v>0.2186</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.0755</v>
+        <v>0.07525</v>
       </c>
       <c r="M51" t="n">
         <v>0.1534</v>
@@ -4648,7 +4648,7 @@
         <v>0.1305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.217129881507018</v>
+        <v>0.217209652871446</v>
       </c>
       <c r="H52" t="n">
         <v>1.68</v>
@@ -4725,7 +4725,7 @@
         <v>0.1305</v>
       </c>
       <c r="G53" t="n">
-        <v>0.217129881507018</v>
+        <v>0.217209652871446</v>
       </c>
       <c r="H53" t="n">
         <v>1.68</v>
@@ -4802,7 +4802,7 @@
         <v>0.015</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0511139088774068</v>
+        <v>0.051112002296217</v>
       </c>
       <c r="H54" t="n">
         <v>0.755</v>
@@ -4879,7 +4879,7 @@
         <v>0.015</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0511139088774068</v>
+        <v>0.051112002296217</v>
       </c>
       <c r="H55" t="n">
         <v>0.755</v>
@@ -4960,13 +4960,13 @@
         <v>3.4</v>
       </c>
       <c r="G56" t="n">
-        <v>3.91044692682162</v>
+        <v>3.73726803785096</v>
       </c>
       <c r="H56" t="n">
-        <v>12.234403298827</v>
+        <v>10.8618889925494</v>
       </c>
       <c r="I56" t="n">
-        <v>8.825900000000001</v>
+        <v>9.13348</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -4974,10 +4974,10 @@
         <v>2.75</v>
       </c>
       <c r="M56" t="n">
-        <v>7.49522</v>
+        <v>6.10155</v>
       </c>
       <c r="N56" t="n">
-        <v>8.36303</v>
+        <v>8.33071</v>
       </c>
       <c r="O56" t="n">
         <v>1858298</v>
@@ -5041,7 +5041,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>0.009526973229332301</v>
+        <v>0.0095317879232196</v>
       </c>
       <c r="H57" t="n">
         <v>0.017</v>
@@ -5122,7 +5122,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>0.009526973229332301</v>
+        <v>0.0095317879232196</v>
       </c>
       <c r="H58" t="n">
         <v>0.017</v>
@@ -5540,10 +5540,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.00132</v>
+        <v>0.00143</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0066124743679517</v>
+        <v>0.0067211327772933</v>
       </c>
       <c r="H63" t="n">
         <v>0.10764633081705</v>
@@ -5554,13 +5554,13 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00139</v>
+        <v>0.0015</v>
       </c>
       <c r="M63" t="n">
-        <v>0.00689</v>
+        <v>0.00712</v>
       </c>
       <c r="N63" t="n">
-        <v>0.01537</v>
+        <v>0.01654</v>
       </c>
       <c r="O63" t="n">
         <v>1858298</v>
@@ -5621,10 +5621,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.00132</v>
+        <v>0.00143</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0066124743679517</v>
+        <v>0.0067211327772933</v>
       </c>
       <c r="H64" t="n">
         <v>0.10764633081705</v>
@@ -5635,13 +5635,13 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.00139</v>
+        <v>0.0015</v>
       </c>
       <c r="M64" t="n">
-        <v>0.00689</v>
+        <v>0.00712</v>
       </c>
       <c r="N64" t="n">
-        <v>0.01537</v>
+        <v>0.01654</v>
       </c>
       <c r="O64" t="n">
         <v>1858298</v>
@@ -5705,7 +5705,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>0.11865444660664</v>
+        <v>0.118688259506312</v>
       </c>
       <c r="H65" t="n">
         <v>0.997</v>
@@ -5786,7 +5786,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>0.11865444660664</v>
+        <v>0.118688259506312</v>
       </c>
       <c r="H66" t="n">
         <v>0.997</v>
@@ -5863,7 +5863,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>0.12945652173913</v>
+        <v>0.129413043478261</v>
       </c>
       <c r="H67" t="n">
         <v>1.125</v>
@@ -5880,7 +5880,7 @@
         <v>0.14812</v>
       </c>
       <c r="N67" t="n">
-        <v>0.1855</v>
+        <v>0.18509</v>
       </c>
       <c r="O67" t="n">
         <v>1858298</v>
@@ -5940,7 +5940,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>0.12945652173913</v>
+        <v>0.129413043478261</v>
       </c>
       <c r="H68" t="n">
         <v>1.125</v>
@@ -5957,7 +5957,7 @@
         <v>0.14812</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1855</v>
+        <v>0.18509</v>
       </c>
       <c r="O68" t="n">
         <v>1858298</v>
@@ -6017,7 +6017,7 @@
         <v>0.1305</v>
       </c>
       <c r="G69" t="n">
-        <v>0.255803796674706</v>
+        <v>0.255857415084835</v>
       </c>
       <c r="H69" t="n">
         <v>1.68</v>
@@ -6094,7 +6094,7 @@
         <v>0.1305</v>
       </c>
       <c r="G70" t="n">
-        <v>0.255803796674706</v>
+        <v>0.255857415084835</v>
       </c>
       <c r="H70" t="n">
         <v>1.68</v>
@@ -6171,7 +6171,7 @@
         <v>0.015</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0471928869914376</v>
+        <v>0.0471885949132968</v>
       </c>
       <c r="H71" t="n">
         <v>0.755</v>
@@ -6248,7 +6248,7 @@
         <v>0.015</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0471928869914376</v>
+        <v>0.0471885949132968</v>
       </c>
       <c r="H72" t="n">
         <v>0.755</v>
@@ -6410,13 +6410,13 @@
         <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>3.61499379222502</v>
+        <v>3.47388506787856</v>
       </c>
       <c r="H74" t="n">
-        <v>12.234403298827</v>
+        <v>10.8618889925494</v>
       </c>
       <c r="I74" t="n">
-        <v>8.72059</v>
+        <v>8.90165</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         <v>2.75</v>
       </c>
       <c r="M74" t="n">
-        <v>6.228</v>
+        <v>6.00597</v>
       </c>
       <c r="N74" t="n">
-        <v>8.29518</v>
+        <v>7.08933</v>
       </c>
       <c r="O74" t="n">
         <v>1858298</v>
@@ -6491,7 +6491,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>0.009193806354297999</v>
+        <v>0.009197624904622399</v>
       </c>
       <c r="H75" t="n">
         <v>0.017</v>
@@ -6572,7 +6572,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>0.009193806354297999</v>
+        <v>0.009197624904622399</v>
       </c>
       <c r="H76" t="n">
         <v>0.017</v>
@@ -7067,27 +7067,27 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.00119</v>
+        <v>0.00126</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0055710264471729</v>
+        <v>0.0056584989070864</v>
       </c>
       <c r="H82" t="n">
         <v>0.10764633081705</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02519</v>
+        <v>0.02576</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.00104</v>
+        <v>0.0011</v>
       </c>
       <c r="M82" t="n">
-        <v>0.00607</v>
+        <v>0.00653</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01455</v>
+        <v>0.01458</v>
       </c>
       <c r="O82" t="n">
         <v>1858298</v>
@@ -7148,27 +7148,27 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.00119</v>
+        <v>0.00126</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0055710264471729</v>
+        <v>0.0056584989070864</v>
       </c>
       <c r="H83" t="n">
         <v>0.10764633081705</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02519</v>
+        <v>0.02576</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.00104</v>
+        <v>0.0011</v>
       </c>
       <c r="M83" t="n">
-        <v>0.00607</v>
+        <v>0.00653</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01455</v>
+        <v>0.01458</v>
       </c>
       <c r="O83" t="n">
         <v>1858298</v>
@@ -7232,7 +7232,7 @@
         <v>0.068</v>
       </c>
       <c r="G84" t="n">
-        <v>0.10027833495498</v>
+        <v>0.100303694629734</v>
       </c>
       <c r="H84" t="n">
         <v>0.997</v>
@@ -7313,7 +7313,7 @@
         <v>0.068</v>
       </c>
       <c r="G85" t="n">
-        <v>0.10027833495498</v>
+        <v>0.100303694629734</v>
       </c>
       <c r="H85" t="n">
         <v>0.997</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.077</v>
+        <v>0.07675</v>
       </c>
       <c r="G86" t="n">
-        <v>0.11301724137931</v>
+        <v>0.112989655172414</v>
       </c>
       <c r="H86" t="n">
         <v>1.125</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3262</v>
+        <v>0.326</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -7404,10 +7404,10 @@
         <v>0.063</v>
       </c>
       <c r="M86" t="n">
-        <v>0.14092</v>
+        <v>0.14074</v>
       </c>
       <c r="N86" t="n">
-        <v>0.16458</v>
+        <v>0.16465</v>
       </c>
       <c r="O86" t="n">
         <v>1858298</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.077</v>
+        <v>0.07675</v>
       </c>
       <c r="G87" t="n">
-        <v>0.11301724137931</v>
+        <v>0.112989655172414</v>
       </c>
       <c r="H87" t="n">
         <v>1.125</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3262</v>
+        <v>0.326</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -7481,10 +7481,10 @@
         <v>0.063</v>
       </c>
       <c r="M87" t="n">
-        <v>0.14092</v>
+        <v>0.14074</v>
       </c>
       <c r="N87" t="n">
-        <v>0.16458</v>
+        <v>0.16465</v>
       </c>
       <c r="O87" t="n">
         <v>1858298</v>
@@ -7544,7 +7544,7 @@
         <v>0.126</v>
       </c>
       <c r="G88" t="n">
-        <v>0.223844390466146</v>
+        <v>0.223886915412111</v>
       </c>
       <c r="H88" t="n">
         <v>1.68</v>
@@ -7621,7 +7621,7 @@
         <v>0.126</v>
       </c>
       <c r="G89" t="n">
-        <v>0.223844390466146</v>
+        <v>0.223886915412111</v>
       </c>
       <c r="H89" t="n">
         <v>1.68</v>
@@ -7698,7 +7698,7 @@
         <v>0.013</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0396702207173471</v>
+        <v>0.0396668166553733</v>
       </c>
       <c r="H90" t="n">
         <v>0.755</v>
@@ -7775,7 +7775,7 @@
         <v>0.013</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0396702207173471</v>
+        <v>0.0396668166553733</v>
       </c>
       <c r="H91" t="n">
         <v>0.755</v>
@@ -8014,13 +8014,13 @@
         <v>2.5</v>
       </c>
       <c r="G94" t="n">
-        <v>3.24227694411467</v>
+        <v>3.18906375827401</v>
       </c>
       <c r="H94" t="n">
-        <v>12.234403298827</v>
+        <v>10.8618889925494</v>
       </c>
       <c r="I94" t="n">
-        <v>8.83907</v>
+        <v>9.200390000000001</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -8028,10 +8028,10 @@
         <v>2.35</v>
       </c>
       <c r="M94" t="n">
-        <v>4.92474</v>
+        <v>4.96678</v>
       </c>
       <c r="N94" t="n">
-        <v>8.315530000000001</v>
+        <v>6.08545</v>
       </c>
       <c r="O94" t="n">
         <v>1858298</v>
@@ -8095,7 +8095,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0093834615267118</v>
+        <v>0.0093872800770362</v>
       </c>
       <c r="H95" t="n">
         <v>0.018</v>
@@ -8176,7 +8176,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0093834615267118</v>
+        <v>0.0093872800770362</v>
       </c>
       <c r="H96" t="n">
         <v>0.018</v>
@@ -8671,27 +8671,27 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0056803981206553</v>
+        <v>0.0057421259198935</v>
       </c>
       <c r="H102" t="n">
         <v>0.10764633081705</v>
       </c>
       <c r="I102" t="n">
-        <v>0.02519</v>
+        <v>0.02576</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00083</v>
+        <v>0.00085</v>
       </c>
       <c r="M102" t="n">
         <v>0.00682</v>
       </c>
       <c r="N102" t="n">
-        <v>0.01455</v>
+        <v>0.01458</v>
       </c>
       <c r="O102" t="n">
         <v>1858298</v>
@@ -8752,27 +8752,27 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0056803981206553</v>
+        <v>0.0057421259198935</v>
       </c>
       <c r="H103" t="n">
         <v>0.10764633081705</v>
       </c>
       <c r="I103" t="n">
-        <v>0.02519</v>
+        <v>0.02576</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.00083</v>
+        <v>0.00085</v>
       </c>
       <c r="M103" t="n">
         <v>0.00682</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01455</v>
+        <v>0.01458</v>
       </c>
       <c r="O103" t="n">
         <v>1858298</v>
@@ -8836,7 +8836,7 @@
         <v>0.066</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0919734496179143</v>
+        <v>0.091994436934952</v>
       </c>
       <c r="H104" t="n">
         <v>0.997</v>
@@ -8917,7 +8917,7 @@
         <v>0.066</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0919734496179143</v>
+        <v>0.091994436934952</v>
       </c>
       <c r="H105" t="n">
         <v>0.997</v>
@@ -9071,24 +9071,24 @@
         <v>0.0745</v>
       </c>
       <c r="G107" t="n">
-        <v>0.108120689655172</v>
+        <v>0.108143103448276</v>
       </c>
       <c r="H107" t="n">
         <v>1.125</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3262</v>
+        <v>0.326</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.052</v>
+        <v>0.0519</v>
       </c>
       <c r="M107" t="n">
-        <v>0.12564</v>
+        <v>0.12614</v>
       </c>
       <c r="N107" t="n">
-        <v>0.16346</v>
+        <v>0.1635</v>
       </c>
       <c r="O107" t="n">
         <v>1858298</v>
@@ -9148,24 +9148,24 @@
         <v>0.0745</v>
       </c>
       <c r="G108" t="n">
-        <v>0.108120689655172</v>
+        <v>0.108143103448276</v>
       </c>
       <c r="H108" t="n">
         <v>1.125</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3262</v>
+        <v>0.326</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.052</v>
+        <v>0.0519</v>
       </c>
       <c r="M108" t="n">
-        <v>0.12564</v>
+        <v>0.12614</v>
       </c>
       <c r="N108" t="n">
-        <v>0.16346</v>
+        <v>0.1635</v>
       </c>
       <c r="O108" t="n">
         <v>1858298</v>
@@ -9379,7 +9379,7 @@
         <v>0.013</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0378943586483816</v>
+        <v>0.0378909545864078</v>
       </c>
       <c r="H111" t="n">
         <v>0.755</v>
@@ -9456,7 +9456,7 @@
         <v>0.013</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0378943586483816</v>
+        <v>0.0378909545864078</v>
       </c>
       <c r="H112" t="n">
         <v>0.755</v>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -9692,27 +9692,27 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="G115" t="n">
-        <v>2.81686947036264</v>
+        <v>3.19137757429952</v>
       </c>
       <c r="H115" t="n">
-        <v>12.234403298827</v>
+        <v>10.0075854000381</v>
       </c>
       <c r="I115" t="n">
-        <v>8.352259999999999</v>
+        <v>9.428369999999999</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>1.99193</v>
+        <v>2.21373</v>
       </c>
       <c r="M115" t="n">
-        <v>3.53984</v>
+        <v>4.80698</v>
       </c>
       <c r="N115" t="n">
-        <v>4.88593</v>
+        <v>7.90318</v>
       </c>
       <c r="O115" t="n">
         <v>1858298</v>
@@ -9776,7 +9776,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0094278096364286</v>
+        <v>0.009431563465561</v>
       </c>
       <c r="H116" t="n">
         <v>0.018</v>
@@ -9857,7 +9857,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0094278096364286</v>
+        <v>0.009431563465561</v>
       </c>
       <c r="H117" t="n">
         <v>0.018</v>
@@ -9938,7 +9938,7 @@
         <v>8</v>
       </c>
       <c r="G118" t="n">
-        <v>48.2512757068595</v>
+        <v>48.2511401237953</v>
       </c>
       <c r="H118" t="n">
         <v>920</v>
@@ -10023,7 +10023,7 @@
         <v>8</v>
       </c>
       <c r="G119" t="n">
-        <v>48.2512757068595</v>
+        <v>48.2511401237953</v>
       </c>
       <c r="H119" t="n">
         <v>920</v>
@@ -10108,7 +10108,7 @@
         <v>8</v>
       </c>
       <c r="G120" t="n">
-        <v>48.2512757068595</v>
+        <v>48.2511401237953</v>
       </c>
       <c r="H120" t="n">
         <v>920</v>
@@ -10193,7 +10193,7 @@
         <v>8</v>
       </c>
       <c r="G121" t="n">
-        <v>48.2512757068595</v>
+        <v>48.2511401237953</v>
       </c>
       <c r="H121" t="n">
         <v>920</v>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00105</v>
+        <v>0.00113</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0053195683748498</v>
+        <v>0.0053410729170049</v>
       </c>
       <c r="H123" t="n">
         <v>0.10764633081705</v>
@@ -10366,7 +10366,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00078</v>
+        <v>0.00081</v>
       </c>
       <c r="M123" t="n">
         <v>0.00668</v>
@@ -10433,10 +10433,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.00105</v>
+        <v>0.00113</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0053195683748498</v>
+        <v>0.0053410729170049</v>
       </c>
       <c r="H124" t="n">
         <v>0.10764633081705</v>
@@ -10447,7 +10447,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00078</v>
+        <v>0.00081</v>
       </c>
       <c r="M124" t="n">
         <v>0.00668</v>
@@ -10517,7 +10517,7 @@
         <v>0.0543</v>
       </c>
       <c r="G125" t="n">
-        <v>0.08350701824809501</v>
+        <v>0.08352413171015011</v>
       </c>
       <c r="H125" t="n">
         <v>0.997</v>
@@ -10598,7 +10598,7 @@
         <v>0.0543</v>
       </c>
       <c r="G126" t="n">
-        <v>0.08350701824809501</v>
+        <v>0.08352413171015011</v>
       </c>
       <c r="H126" t="n">
         <v>0.997</v>
@@ -10752,7 +10752,7 @@
         <v>0.066</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0994536896404818</v>
+        <v>0.0994852609853753</v>
       </c>
       <c r="H128" t="n">
         <v>1.125</v>
@@ -10763,13 +10763,13 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.0335</v>
+        <v>0.03335</v>
       </c>
       <c r="M128" t="n">
         <v>0.11888</v>
       </c>
       <c r="N128" t="n">
-        <v>0.154</v>
+        <v>0.15423</v>
       </c>
       <c r="O128" t="n">
         <v>1858298</v>
@@ -10829,7 +10829,7 @@
         <v>0.066</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0994536896404818</v>
+        <v>0.0994852609853753</v>
       </c>
       <c r="H129" t="n">
         <v>1.125</v>
@@ -10840,13 +10840,13 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.0335</v>
+        <v>0.03335</v>
       </c>
       <c r="M129" t="n">
         <v>0.11888</v>
       </c>
       <c r="N129" t="n">
-        <v>0.154</v>
+        <v>0.15423</v>
       </c>
       <c r="O129" t="n">
         <v>1858298</v>
@@ -11060,7 +11060,7 @@
         <v>0.012</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0268961491797649</v>
+        <v>0.0268928028137569</v>
       </c>
       <c r="H132" t="n">
         <v>0.755</v>
@@ -11137,7 +11137,7 @@
         <v>0.012</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0268961491797649</v>
+        <v>0.0268928028137569</v>
       </c>
       <c r="H133" t="n">
         <v>0.755</v>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11373,27 +11373,27 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2.75</v>
+        <v>3.03093</v>
       </c>
       <c r="G136" t="n">
-        <v>3.40550971761982</v>
+        <v>3.97144120582387</v>
       </c>
       <c r="H136" t="n">
-        <v>11.4431723767035</v>
+        <v>14.7112343553842</v>
       </c>
       <c r="I136" t="n">
-        <v>8.10402</v>
+        <v>9.533200000000001</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>2.49924</v>
+        <v>3.5</v>
       </c>
       <c r="M136" t="n">
-        <v>5.8321</v>
+        <v>6.6463</v>
       </c>
       <c r="N136" t="n">
-        <v>6.94423</v>
+        <v>8.63198</v>
       </c>
       <c r="O136" t="n">
         <v>1858298</v>
@@ -11457,7 +11457,7 @@
         <v>0.01</v>
       </c>
       <c r="G137" t="n">
-        <v>0.009732971398273499</v>
+        <v>0.0097364622198891</v>
       </c>
       <c r="H137" t="n">
         <v>0.018</v>
@@ -11538,7 +11538,7 @@
         <v>0.01</v>
       </c>
       <c r="G138" t="n">
-        <v>0.009732971398273499</v>
+        <v>0.0097364622198891</v>
       </c>
       <c r="H138" t="n">
         <v>0.018</v>
@@ -11619,7 +11619,7 @@
         <v>6.5</v>
       </c>
       <c r="G139" t="n">
-        <v>43.5525369945534</v>
+        <v>43.5520713520052</v>
       </c>
       <c r="H139" t="n">
         <v>920</v>
@@ -11704,7 +11704,7 @@
         <v>6.5</v>
       </c>
       <c r="G140" t="n">
-        <v>43.5525369945534</v>
+        <v>43.5520713520052</v>
       </c>
       <c r="H140" t="n">
         <v>920</v>
@@ -11789,7 +11789,7 @@
         <v>6.5</v>
       </c>
       <c r="G141" t="n">
-        <v>43.5525369945534</v>
+        <v>43.5520713520052</v>
       </c>
       <c r="H141" t="n">
         <v>920</v>
@@ -11874,7 +11874,7 @@
         <v>6.5</v>
       </c>
       <c r="G142" t="n">
-        <v>43.5525369945534</v>
+        <v>43.5520713520052</v>
       </c>
       <c r="H142" t="n">
         <v>920</v>
@@ -12033,10 +12033,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.00138</v>
+        <v>0.00146</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0053301237627394</v>
+        <v>0.0053614230465708</v>
       </c>
       <c r="H144" t="n">
         <v>0.10764633081705</v>
@@ -12047,7 +12047,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.0011</v>
+        <v>0.00116</v>
       </c>
       <c r="M144" t="n">
         <v>0.00653</v>
@@ -12114,10 +12114,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00138</v>
+        <v>0.00146</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0053301237627394</v>
+        <v>0.0053614230465708</v>
       </c>
       <c r="H145" t="n">
         <v>0.10764633081705</v>
@@ -12128,7 +12128,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.0011</v>
+        <v>0.00116</v>
       </c>
       <c r="M145" t="n">
         <v>0.00653</v>
@@ -12198,7 +12198,7 @@
         <v>0.04815</v>
       </c>
       <c r="G146" t="n">
-        <v>0.07939839804359521</v>
+        <v>0.07943572911941971</v>
       </c>
       <c r="H146" t="n">
         <v>0.997</v>
@@ -12209,7 +12209,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.01515</v>
+        <v>0.01547</v>
       </c>
       <c r="M146" t="n">
         <v>0.1109</v>
@@ -12279,7 +12279,7 @@
         <v>0.04815</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07939839804359521</v>
+        <v>0.07943572911941971</v>
       </c>
       <c r="H147" t="n">
         <v>0.997</v>
@@ -12290,7 +12290,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.01515</v>
+        <v>0.01547</v>
       </c>
       <c r="M147" t="n">
         <v>0.1109</v>
@@ -12433,13 +12433,13 @@
         <v>0.055</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0885459711937463</v>
+        <v>0.0886005789416652</v>
       </c>
       <c r="H149" t="n">
         <v>1.125</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1595</v>
+        <v>0.15965</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -12510,13 +12510,13 @@
         <v>0.055</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0885459711937463</v>
+        <v>0.0886005789416652</v>
       </c>
       <c r="H150" t="n">
         <v>1.125</v>
       </c>
       <c r="I150" t="n">
-        <v>0.1595</v>
+        <v>0.15965</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -12587,7 +12587,7 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>0.13504064856587</v>
+        <v>0.135081307417762</v>
       </c>
       <c r="H151" t="n">
         <v>1.1</v>
@@ -12664,7 +12664,7 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>0.13504064856587</v>
+        <v>0.135081307417762</v>
       </c>
       <c r="H152" t="n">
         <v>1.1</v>
@@ -12741,7 +12741,7 @@
         <v>0.012</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0133105498874236</v>
+        <v>0.0133087210064278</v>
       </c>
       <c r="H153" t="n">
         <v>0.06</v>
@@ -12818,7 +12818,7 @@
         <v>0.012</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0133105498874236</v>
+        <v>0.0133087210064278</v>
       </c>
       <c r="H154" t="n">
         <v>0.06</v>
@@ -13054,27 +13054,27 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>3.34977</v>
+        <v>4.53179</v>
       </c>
       <c r="G157" t="n">
-        <v>4.10338276067668</v>
+        <v>4.74728410290969</v>
       </c>
       <c r="H157" t="n">
-        <v>11.4431723767035</v>
+        <v>14.8124905959593</v>
       </c>
       <c r="I157" t="n">
-        <v>9.754200000000001</v>
+        <v>10.24277</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>3.5</v>
+        <v>4.80461</v>
       </c>
       <c r="M157" t="n">
-        <v>6.30321</v>
+        <v>6.86848</v>
       </c>
       <c r="N157" t="n">
-        <v>9.030189999999999</v>
+        <v>9.48686</v>
       </c>
       <c r="O157" t="n">
         <v>1858298</v>
@@ -13138,7 +13138,7 @@
         <v>0.011</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0106145559278884</v>
+        <v>0.0106156545049655</v>
       </c>
       <c r="H158" t="n">
         <v>0.019</v>
@@ -13219,7 +13219,7 @@
         <v>0.011</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0106145559278884</v>
+        <v>0.0106156545049655</v>
       </c>
       <c r="H159" t="n">
         <v>0.019</v>
@@ -13300,7 +13300,7 @@
         <v>5</v>
       </c>
       <c r="G160" t="n">
-        <v>25.4506916915458</v>
+        <v>25.4489039256812</v>
       </c>
       <c r="H160" t="n">
         <v>606</v>
@@ -13385,7 +13385,7 @@
         <v>5</v>
       </c>
       <c r="G161" t="n">
-        <v>25.4506916915458</v>
+        <v>25.4489039256812</v>
       </c>
       <c r="H161" t="n">
         <v>606</v>
@@ -13470,7 +13470,7 @@
         <v>5</v>
       </c>
       <c r="G162" t="n">
-        <v>25.4506916915458</v>
+        <v>25.4489039256812</v>
       </c>
       <c r="H162" t="n">
         <v>606</v>
@@ -13555,7 +13555,7 @@
         <v>5</v>
       </c>
       <c r="G163" t="n">
-        <v>25.4506916915458</v>
+        <v>25.4489039256812</v>
       </c>
       <c r="H163" t="n">
         <v>606</v>
@@ -13714,10 +13714,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.00152</v>
+        <v>0.00158</v>
       </c>
       <c r="G165" t="n">
-        <v>0.002162605706538</v>
+        <v>0.0022068985619916</v>
       </c>
       <c r="H165" t="n">
         <v>0.0102014319803077</v>
@@ -13728,13 +13728,13 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00147</v>
+        <v>0.00156</v>
       </c>
       <c r="M165" t="n">
-        <v>0.00315</v>
+        <v>0.00324</v>
       </c>
       <c r="N165" t="n">
-        <v>0.00587</v>
+        <v>0.00592</v>
       </c>
       <c r="O165" t="n">
         <v>1858298</v>
@@ -13795,10 +13795,10 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.00152</v>
+        <v>0.00158</v>
       </c>
       <c r="G166" t="n">
-        <v>0.002162605706538</v>
+        <v>0.0022068985619916</v>
       </c>
       <c r="H166" t="n">
         <v>0.0102014319803077</v>
@@ -13809,13 +13809,13 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.00147</v>
+        <v>0.00156</v>
       </c>
       <c r="M166" t="n">
-        <v>0.00315</v>
+        <v>0.00324</v>
       </c>
       <c r="N166" t="n">
-        <v>0.00587</v>
+        <v>0.00592</v>
       </c>
       <c r="O166" t="n">
         <v>1858298</v>
@@ -13879,7 +13879,7 @@
         <v>0.04665</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0561150647102619</v>
+        <v>0.0561523957860864</v>
       </c>
       <c r="H167" t="n">
         <v>0.161</v>
@@ -13890,7 +13890,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.01515</v>
+        <v>0.01547</v>
       </c>
       <c r="M167" t="n">
         <v>0.1051</v>
@@ -13960,7 +13960,7 @@
         <v>0.04665</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0561150647102619</v>
+        <v>0.0561523957860864</v>
       </c>
       <c r="H168" t="n">
         <v>0.161</v>
@@ -13971,7 +13971,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.01515</v>
+        <v>0.01547</v>
       </c>
       <c r="M168" t="n">
         <v>0.1051</v>
@@ -14114,13 +14114,13 @@
         <v>0.054</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0626959711937463</v>
+        <v>0.06275057894166521</v>
       </c>
       <c r="H170" t="n">
         <v>0.165</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1545</v>
+        <v>0.15465</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -14128,7 +14128,7 @@
         <v>0.025</v>
       </c>
       <c r="M170" t="n">
-        <v>0.108</v>
+        <v>0.10821</v>
       </c>
       <c r="N170" t="n">
         <v>0.1483</v>
@@ -14191,13 +14191,13 @@
         <v>0.054</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0626959711937463</v>
+        <v>0.06275057894166521</v>
       </c>
       <c r="H171" t="n">
         <v>0.165</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1545</v>
+        <v>0.15465</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -14205,7 +14205,7 @@
         <v>0.025</v>
       </c>
       <c r="M171" t="n">
-        <v>0.108</v>
+        <v>0.10821</v>
       </c>
       <c r="N171" t="n">
         <v>0.1483</v>
@@ -14268,7 +14268,7 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>0.103957315232537</v>
+        <v>0.103997974084429</v>
       </c>
       <c r="H172" t="n">
         <v>0.22</v>
@@ -14345,7 +14345,7 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="G173" t="n">
-        <v>0.103957315232537</v>
+        <v>0.103997974084429</v>
       </c>
       <c r="H173" t="n">
         <v>0.22</v>
@@ -14735,27 +14735,27 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3.80722</v>
+        <v>4.76897</v>
       </c>
       <c r="G178" t="n">
-        <v>4.35468456811795</v>
+        <v>4.99235131282623</v>
       </c>
       <c r="H178" t="n">
-        <v>11.4431723767035</v>
+        <v>14.8124905959593</v>
       </c>
       <c r="I178" t="n">
-        <v>9.75844</v>
+        <v>9.98387</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>4.95113</v>
+        <v>5.42015</v>
       </c>
       <c r="M178" t="n">
-        <v>6.63463</v>
+        <v>7.29096</v>
       </c>
       <c r="N178" t="n">
-        <v>9.71175</v>
+        <v>9.469200000000001</v>
       </c>
       <c r="O178" t="n">
         <v>1858298</v>
@@ -14819,7 +14819,7 @@
         <v>0.011</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0119145559278884</v>
+        <v>0.0119156545049655</v>
       </c>
       <c r="H179" t="n">
         <v>0.057</v>
@@ -14900,7 +14900,7 @@
         <v>0.011</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0119145559278884</v>
+        <v>0.0119156545049655</v>
       </c>
       <c r="H180" t="n">
         <v>0.057</v>
@@ -14981,7 +14981,7 @@
         <v>8</v>
       </c>
       <c r="G181" t="n">
-        <v>28.7093565201304</v>
+        <v>28.7065428136744</v>
       </c>
       <c r="H181" t="n">
         <v>606</v>
@@ -15066,7 +15066,7 @@
         <v>8</v>
       </c>
       <c r="G182" t="n">
-        <v>28.7093565201304</v>
+        <v>28.7065428136744</v>
       </c>
       <c r="H182" t="n">
         <v>606</v>
@@ -15151,7 +15151,7 @@
         <v>8</v>
       </c>
       <c r="G183" t="n">
-        <v>28.7093565201304</v>
+        <v>28.7065428136744</v>
       </c>
       <c r="H183" t="n">
         <v>606</v>
@@ -15236,7 +15236,7 @@
         <v>8</v>
       </c>
       <c r="G184" t="n">
-        <v>28.7093565201304</v>
+        <v>28.7065428136744</v>
       </c>
       <c r="H184" t="n">
         <v>606</v>
@@ -15395,10 +15395,10 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.00216</v>
+        <v>0.00222</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0027687491975598</v>
+        <v>0.0028254597377749</v>
       </c>
       <c r="H186" t="n">
         <v>0.0173248173310637</v>
@@ -15409,13 +15409,13 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00233</v>
+        <v>0.00237</v>
       </c>
       <c r="M186" t="n">
-        <v>0.00374</v>
+        <v>0.00385</v>
       </c>
       <c r="N186" t="n">
-        <v>0.00604</v>
+        <v>0.00606</v>
       </c>
       <c r="O186" t="n">
         <v>1858298</v>
@@ -15476,10 +15476,10 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.00216</v>
+        <v>0.00222</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0027687491975598</v>
+        <v>0.0028254597377749</v>
       </c>
       <c r="H187" t="n">
         <v>0.0173248173310637</v>
@@ -15490,13 +15490,13 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
-        <v>0.00233</v>
+        <v>0.00237</v>
       </c>
       <c r="M187" t="n">
-        <v>0.00374</v>
+        <v>0.00385</v>
       </c>
       <c r="N187" t="n">
-        <v>0.00604</v>
+        <v>0.00606</v>
       </c>
       <c r="O187" t="n">
         <v>1858298</v>
@@ -15560,7 +15560,7 @@
         <v>0.05465</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0711850647102619</v>
+        <v>0.0712223957860864</v>
       </c>
       <c r="H188" t="n">
         <v>0.25</v>
@@ -15641,7 +15641,7 @@
         <v>0.05465</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0711850647102619</v>
+        <v>0.0712223957860864</v>
       </c>
       <c r="H189" t="n">
         <v>0.25</v>
@@ -15795,7 +15795,7 @@
         <v>0.0675</v>
       </c>
       <c r="G191" t="n">
-        <v>0.07827930452707969</v>
+        <v>0.0783272456083319</v>
       </c>
       <c r="H191" t="n">
         <v>0.255</v>
@@ -15806,13 +15806,13 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.04</v>
+        <v>0.03985</v>
       </c>
       <c r="M191" t="n">
         <v>0.138</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1547</v>
+        <v>0.15479</v>
       </c>
       <c r="O191" t="n">
         <v>1858298</v>
@@ -15872,7 +15872,7 @@
         <v>0.0675</v>
       </c>
       <c r="G192" t="n">
-        <v>0.07827930452707969</v>
+        <v>0.0783272456083319</v>
       </c>
       <c r="H192" t="n">
         <v>0.255</v>
@@ -15883,13 +15883,13 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.04</v>
+        <v>0.03985</v>
       </c>
       <c r="M192" t="n">
         <v>0.138</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1547</v>
+        <v>0.15479</v>
       </c>
       <c r="O192" t="n">
         <v>1858298</v>
@@ -15949,7 +15949,7 @@
         <v>0.1085</v>
       </c>
       <c r="G193" t="n">
-        <v>0.115523981899203</v>
+        <v>0.115564640751096</v>
       </c>
       <c r="H193" t="n">
         <v>0.31</v>
@@ -16026,7 +16026,7 @@
         <v>0.1085</v>
       </c>
       <c r="G194" t="n">
-        <v>0.115523981899203</v>
+        <v>0.115564640751096</v>
       </c>
       <c r="H194" t="n">
         <v>0.31</v>
@@ -16416,27 +16416,27 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4.16</v>
+        <v>4.66744</v>
       </c>
       <c r="G199" t="n">
-        <v>4.63260932530127</v>
+        <v>4.81000627133793</v>
       </c>
       <c r="H199" t="n">
-        <v>11.9464184250567</v>
+        <v>14.8124905959593</v>
       </c>
       <c r="I199" t="n">
-        <v>11.05102</v>
+        <v>9.978350000000001</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>5.08677</v>
+        <v>5.00745</v>
       </c>
       <c r="M199" t="n">
-        <v>6.97527</v>
+        <v>7.29096</v>
       </c>
       <c r="N199" t="n">
-        <v>9.97636</v>
+        <v>8.50544</v>
       </c>
       <c r="O199" t="n">
         <v>1858298</v>
@@ -16500,7 +16500,7 @@
         <v>0.011</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0117645559278884</v>
+        <v>0.0117656545049655</v>
       </c>
       <c r="H200" t="n">
         <v>0.057</v>
@@ -16581,7 +16581,7 @@
         <v>0.011</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0117645559278884</v>
+        <v>0.0117656545049655</v>
       </c>
       <c r="H201" t="n">
         <v>0.057</v>
@@ -16662,7 +16662,7 @@
         <v>8</v>
       </c>
       <c r="G202" t="n">
-        <v>16.2909124883574</v>
+        <v>16.2868032972953</v>
       </c>
       <c r="H202" t="n">
         <v>150</v>
@@ -16747,7 +16747,7 @@
         <v>8</v>
       </c>
       <c r="G203" t="n">
-        <v>16.2909124883574</v>
+        <v>16.2868032972953</v>
       </c>
       <c r="H203" t="n">
         <v>150</v>
@@ -16832,7 +16832,7 @@
         <v>8</v>
       </c>
       <c r="G204" t="n">
-        <v>16.2909124883574</v>
+        <v>16.2868032972953</v>
       </c>
       <c r="H204" t="n">
         <v>150</v>
@@ -16917,7 +16917,7 @@
         <v>8</v>
       </c>
       <c r="G205" t="n">
-        <v>16.2909124883574</v>
+        <v>16.2868032972953</v>
       </c>
       <c r="H205" t="n">
         <v>150</v>
@@ -17076,27 +17076,27 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.00285</v>
+        <v>0.00293</v>
       </c>
       <c r="G207" t="n">
-        <v>0.003321702330632</v>
+        <v>0.0033918569065535</v>
       </c>
       <c r="H207" t="n">
         <v>0.0173248173310637</v>
       </c>
       <c r="I207" t="n">
-        <v>0.007820000000000001</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.00344</v>
+        <v>0.00351</v>
       </c>
       <c r="M207" t="n">
-        <v>0.00454</v>
+        <v>0.00466</v>
       </c>
       <c r="N207" t="n">
-        <v>0.00616</v>
+        <v>0.00623</v>
       </c>
       <c r="O207" t="n">
         <v>1858298</v>
@@ -17157,27 +17157,27 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.00285</v>
+        <v>0.00293</v>
       </c>
       <c r="G208" t="n">
-        <v>0.003321702330632</v>
+        <v>0.0033918569065535</v>
       </c>
       <c r="H208" t="n">
         <v>0.0173248173310637</v>
       </c>
       <c r="I208" t="n">
-        <v>0.007820000000000001</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>0.00344</v>
+        <v>0.00351</v>
       </c>
       <c r="M208" t="n">
-        <v>0.00454</v>
+        <v>0.00466</v>
       </c>
       <c r="N208" t="n">
-        <v>0.00616</v>
+        <v>0.00623</v>
       </c>
       <c r="O208" t="n">
         <v>1858298</v>
@@ -17241,7 +17241,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0884167313769285</v>
+        <v>0.088454062452753</v>
       </c>
       <c r="H209" t="n">
         <v>0.275</v>
@@ -17322,7 +17322,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0884167313769285</v>
+        <v>0.088454062452753</v>
       </c>
       <c r="H210" t="n">
         <v>0.275</v>
@@ -17473,10 +17473,10 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.0755</v>
+        <v>0.07565</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0954459711937463</v>
+        <v>0.0954872456083319</v>
       </c>
       <c r="H212" t="n">
         <v>0.285</v>
@@ -17550,10 +17550,10 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.0755</v>
+        <v>0.07565</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0954459711937463</v>
+        <v>0.0954872456083319</v>
       </c>
       <c r="H213" t="n">
         <v>0.285</v>
@@ -17630,7 +17630,7 @@
         <v>0.13</v>
       </c>
       <c r="G214" t="n">
-        <v>0.13589064856587</v>
+        <v>0.135931307417762</v>
       </c>
       <c r="H214" t="n">
         <v>0.44</v>
@@ -17707,7 +17707,7 @@
         <v>0.13</v>
       </c>
       <c r="G215" t="n">
-        <v>0.13589064856587</v>
+        <v>0.135931307417762</v>
       </c>
       <c r="H215" t="n">
         <v>0.44</v>
@@ -18097,27 +18097,27 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>4.75477</v>
+        <v>4.48146</v>
       </c>
       <c r="G220" t="n">
-        <v>5.02658178392447</v>
+        <v>4.69117591054937</v>
       </c>
       <c r="H220" t="n">
-        <v>11.9464184250567</v>
+        <v>14.8124905959593</v>
       </c>
       <c r="I220" t="n">
-        <v>11.19725</v>
+        <v>9.902150000000001</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>5.40939</v>
+        <v>4.92358</v>
       </c>
       <c r="M220" t="n">
-        <v>7.3655</v>
+        <v>6.77247</v>
       </c>
       <c r="N220" t="n">
-        <v>10.2647</v>
+        <v>7.73718</v>
       </c>
       <c r="O220" t="n">
         <v>1858298</v>
@@ -18181,7 +18181,7 @@
         <v>0.011</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0115910738249713</v>
+        <v>0.0115921910219989</v>
       </c>
       <c r="H221" t="n">
         <v>0.057</v>
@@ -18262,7 +18262,7 @@
         <v>0.011</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0115910738249713</v>
+        <v>0.0115921910219989</v>
       </c>
       <c r="H222" t="n">
         <v>0.057</v>
@@ -18343,7 +18343,7 @@
         <v>8</v>
       </c>
       <c r="G223" t="n">
-        <v>16.7378775443184</v>
+        <v>16.7302894914453</v>
       </c>
       <c r="H223" t="n">
         <v>150</v>
@@ -18428,7 +18428,7 @@
         <v>8</v>
       </c>
       <c r="G224" t="n">
-        <v>16.7378775443184</v>
+        <v>16.7302894914453</v>
       </c>
       <c r="H224" t="n">
         <v>150</v>
@@ -18513,7 +18513,7 @@
         <v>8</v>
       </c>
       <c r="G225" t="n">
-        <v>16.7378775443184</v>
+        <v>16.7302894914453</v>
       </c>
       <c r="H225" t="n">
         <v>150</v>
@@ -18598,7 +18598,7 @@
         <v>8</v>
       </c>
       <c r="G226" t="n">
-        <v>16.7378775443184</v>
+        <v>16.7302894914453</v>
       </c>
       <c r="H226" t="n">
         <v>150</v>
@@ -18757,27 +18757,27 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0.00336</v>
+        <v>0.00342</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0038327292441988</v>
+        <v>0.0039000146631251</v>
       </c>
       <c r="H228" t="n">
         <v>0.0173248173310637</v>
       </c>
       <c r="I228" t="n">
-        <v>0.00801</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>0.00355</v>
+        <v>0.00364</v>
       </c>
       <c r="M228" t="n">
-        <v>0.00536</v>
+        <v>0.00544</v>
       </c>
       <c r="N228" t="n">
-        <v>0.00657</v>
+        <v>0.00658</v>
       </c>
       <c r="O228" t="n">
         <v>1858298</v>
@@ -18838,27 +18838,27 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0.00336</v>
+        <v>0.00342</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0038327292441988</v>
+        <v>0.0039000146631251</v>
       </c>
       <c r="H229" t="n">
         <v>0.0173248173310637</v>
       </c>
       <c r="I229" t="n">
-        <v>0.00801</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
-        <v>0.00355</v>
+        <v>0.00364</v>
       </c>
       <c r="M229" t="n">
-        <v>0.00536</v>
+        <v>0.00544</v>
       </c>
       <c r="N229" t="n">
-        <v>0.00657</v>
+        <v>0.00658</v>
       </c>
       <c r="O229" t="n">
         <v>1858298</v>
@@ -18922,7 +18922,7 @@
         <v>0.103</v>
       </c>
       <c r="G230" t="n">
-        <v>0.105982878067426</v>
+        <v>0.106003728411294</v>
       </c>
       <c r="H230" t="n">
         <v>0.275</v>
@@ -19003,7 +19003,7 @@
         <v>0.103</v>
       </c>
       <c r="G231" t="n">
-        <v>0.105982878067426</v>
+        <v>0.106003728411294</v>
       </c>
       <c r="H231" t="n">
         <v>0.275</v>
@@ -19157,7 +19157,7 @@
         <v>0.105</v>
       </c>
       <c r="G233" t="n">
-        <v>0.114338823437904</v>
+        <v>0.114362785395979</v>
       </c>
       <c r="H233" t="n">
         <v>0.285</v>
@@ -19234,7 +19234,7 @@
         <v>0.105</v>
       </c>
       <c r="G234" t="n">
-        <v>0.114338823437904</v>
+        <v>0.114362785395979</v>
       </c>
       <c r="H234" t="n">
         <v>0.285</v>
@@ -19311,7 +19311,7 @@
         <v>0.14</v>
       </c>
       <c r="G235" t="n">
-        <v>0.146854896846648</v>
+        <v>0.146896244831623</v>
       </c>
       <c r="H235" t="n">
         <v>0.44</v>
@@ -19388,7 +19388,7 @@
         <v>0.14</v>
       </c>
       <c r="G236" t="n">
-        <v>0.146854896846648</v>
+        <v>0.146896244831623</v>
       </c>
       <c r="H236" t="n">
         <v>0.44</v>
@@ -19778,27 +19778,27 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4.00361</v>
+        <v>3.29973</v>
       </c>
       <c r="G241" t="n">
-        <v>4.42146712576843</v>
+        <v>3.87747112402952</v>
       </c>
       <c r="H241" t="n">
-        <v>11.9464184250567</v>
+        <v>14.8124905959593</v>
       </c>
       <c r="I241" t="n">
-        <v>10.92849</v>
+        <v>7.73404</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
-        <v>5.22241</v>
+        <v>5.09131</v>
       </c>
       <c r="M241" t="n">
-        <v>7.19644</v>
+        <v>6.00069</v>
       </c>
       <c r="N241" t="n">
-        <v>10.16172</v>
+        <v>7.50879</v>
       </c>
       <c r="O241" t="n">
         <v>1858298</v>
@@ -20024,7 +20024,7 @@
         <v>8</v>
       </c>
       <c r="G244" t="n">
-        <v>24.7153868160388</v>
+        <v>24.7081367148964</v>
       </c>
       <c r="H244" t="n">
         <v>380</v>
@@ -20109,7 +20109,7 @@
         <v>8</v>
       </c>
       <c r="G245" t="n">
-        <v>24.7153868160388</v>
+        <v>24.7081367148964</v>
       </c>
       <c r="H245" t="n">
         <v>380</v>
@@ -20194,7 +20194,7 @@
         <v>8</v>
       </c>
       <c r="G246" t="n">
-        <v>24.7153868160388</v>
+        <v>24.7081367148964</v>
       </c>
       <c r="H246" t="n">
         <v>380</v>
@@ -20279,7 +20279,7 @@
         <v>8</v>
       </c>
       <c r="G247" t="n">
-        <v>24.7153868160388</v>
+        <v>24.7081367148964</v>
       </c>
       <c r="H247" t="n">
         <v>380</v>
@@ -20438,27 +20438,27 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0.00341</v>
+        <v>0.00346</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0038391053531781</v>
+        <v>0.0038878221260463</v>
       </c>
       <c r="H249" t="n">
         <v>0.0173248173310637</v>
       </c>
       <c r="I249" t="n">
-        <v>0.0076</v>
+        <v>0.00761</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
-        <v>0.00352</v>
+        <v>0.00357</v>
       </c>
       <c r="M249" t="n">
-        <v>0.00576</v>
+        <v>0.0058</v>
       </c>
       <c r="N249" t="n">
-        <v>0.00665</v>
+        <v>0.00667</v>
       </c>
       <c r="O249" t="n">
         <v>1858298</v>
@@ -20519,27 +20519,27 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0.00341</v>
+        <v>0.00346</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0038391053531781</v>
+        <v>0.0038878221260463</v>
       </c>
       <c r="H250" t="n">
         <v>0.0173248173310637</v>
       </c>
       <c r="I250" t="n">
-        <v>0.0076</v>
+        <v>0.00761</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>0.00352</v>
+        <v>0.00357</v>
       </c>
       <c r="M250" t="n">
-        <v>0.00576</v>
+        <v>0.0058</v>
       </c>
       <c r="N250" t="n">
-        <v>0.00665</v>
+        <v>0.00667</v>
       </c>
       <c r="O250" t="n">
         <v>1858298</v>
@@ -21624,7 +21624,7 @@
         <v>12</v>
       </c>
       <c r="G264" t="n">
-        <v>35.1813340721549</v>
+        <v>35.1728670816761</v>
       </c>
       <c r="H264" t="n">
         <v>690</v>
@@ -21709,7 +21709,7 @@
         <v>12</v>
       </c>
       <c r="G265" t="n">
-        <v>35.1813340721549</v>
+        <v>35.1728670816761</v>
       </c>
       <c r="H265" t="n">
         <v>690</v>
@@ -21794,7 +21794,7 @@
         <v>12</v>
       </c>
       <c r="G266" t="n">
-        <v>35.1813340721549</v>
+        <v>35.1728670816761</v>
       </c>
       <c r="H266" t="n">
         <v>690</v>
@@ -21879,7 +21879,7 @@
         <v>12</v>
       </c>
       <c r="G267" t="n">
-        <v>35.1813340721549</v>
+        <v>35.1728670816761</v>
       </c>
       <c r="H267" t="n">
         <v>690</v>
@@ -22038,27 +22038,27 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0.00354</v>
+        <v>0.00357</v>
       </c>
       <c r="G269" t="n">
-        <v>0.0039742829420098</v>
+        <v>0.0040031735595318</v>
       </c>
       <c r="H269" t="n">
         <v>0.0173248173310637</v>
       </c>
       <c r="I269" t="n">
-        <v>0.00764</v>
+        <v>0.00765</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
-        <v>0.00348</v>
+        <v>0.00352</v>
       </c>
       <c r="M269" t="n">
-        <v>0.00578</v>
+        <v>0.00582</v>
       </c>
       <c r="N269" t="n">
-        <v>0.00677</v>
+        <v>0.0068</v>
       </c>
       <c r="O269" t="n">
         <v>1858298</v>
@@ -22119,27 +22119,27 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0.00354</v>
+        <v>0.00357</v>
       </c>
       <c r="G270" t="n">
-        <v>0.0039742829420098</v>
+        <v>0.0040031735595318</v>
       </c>
       <c r="H270" t="n">
         <v>0.0173248173310637</v>
       </c>
       <c r="I270" t="n">
-        <v>0.00764</v>
+        <v>0.00765</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
-        <v>0.00348</v>
+        <v>0.00352</v>
       </c>
       <c r="M270" t="n">
-        <v>0.00578</v>
+        <v>0.00582</v>
       </c>
       <c r="N270" t="n">
-        <v>0.00677</v>
+        <v>0.0068</v>
       </c>
       <c r="O270" t="n">
         <v>1858298</v>
@@ -22874,6 +22874,1606 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.5748</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.61715</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P280" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="G281" t="n">
+        <v>3.94592508327909</v>
+      </c>
+      <c r="H281" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I281" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M281" t="n">
+        <v>8</v>
+      </c>
+      <c r="N281" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="O281" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P281" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0110526315789474</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.01565</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0.01481</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O282" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P282" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0110526315789474</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.01565</v>
+      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0.01481</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O283" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P283" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>12</v>
+      </c>
+      <c r="G284" t="n">
+        <v>36.1837200051773</v>
+      </c>
+      <c r="H284" t="n">
+        <v>690</v>
+      </c>
+      <c r="I284" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1.75438596491228</v>
+      </c>
+      <c r="K284" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="L284" t="n">
+        <v>16</v>
+      </c>
+      <c r="M284" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="N284" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="O284" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P284" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>12</v>
+      </c>
+      <c r="G285" t="n">
+        <v>36.1837200051773</v>
+      </c>
+      <c r="H285" t="n">
+        <v>690</v>
+      </c>
+      <c r="I285" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="J285" t="n">
+        <v>1.75438596491228</v>
+      </c>
+      <c r="K285" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="L285" t="n">
+        <v>16</v>
+      </c>
+      <c r="M285" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="N285" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P285" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>12</v>
+      </c>
+      <c r="G286" t="n">
+        <v>36.1837200051773</v>
+      </c>
+      <c r="H286" t="n">
+        <v>690</v>
+      </c>
+      <c r="I286" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1.75438596491228</v>
+      </c>
+      <c r="K286" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="L286" t="n">
+        <v>16</v>
+      </c>
+      <c r="M286" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="N286" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="O286" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P286" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>12</v>
+      </c>
+      <c r="G287" t="n">
+        <v>36.1837200051773</v>
+      </c>
+      <c r="H287" t="n">
+        <v>690</v>
+      </c>
+      <c r="I287" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="J287" t="n">
+        <v>1.75438596491228</v>
+      </c>
+      <c r="K287" t="n">
+        <v>3.50877192982456</v>
+      </c>
+      <c r="L287" t="n">
+        <v>16</v>
+      </c>
+      <c r="M287" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="N287" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P287" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>127.27</v>
+      </c>
+      <c r="G288" t="n">
+        <v>125.654</v>
+      </c>
+      <c r="H288" t="n">
+        <v>136</v>
+      </c>
+      <c r="I288" t="n">
+        <v>136</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>127.27</v>
+      </c>
+      <c r="M288" t="n">
+        <v>133.55</v>
+      </c>
+      <c r="N288" t="n">
+        <v>136</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P288" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0032651271618906</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.012170762894812</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.00721</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>0.00344</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.00535</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.00644</v>
+      </c>
+      <c r="O289" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P289" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0032651271618906</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.012170762894812</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.00721</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>0.00344</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.00535</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0.00644</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P290" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.120771929824561</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.2198</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0.17181</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.20468</v>
+      </c>
+      <c r="O291" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P291" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.120771929824561</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.2198</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.17181</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.20468</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P292" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="G293" t="n">
+        <v>7.4342</v>
+      </c>
+      <c r="H293" t="n">
+        <v>7.804</v>
+      </c>
+      <c r="I293" t="n">
+        <v>7.804</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="M293" t="n">
+        <v>7.7221</v>
+      </c>
+      <c r="N293" t="n">
+        <v>7.804</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.127929824561404</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.2289</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.17581</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.20992</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.127929824561404</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.2289</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.17581</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.20992</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P295" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.157719298245614</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.2565</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.157719298245614</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0.2565</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P297" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0332982456140351</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.03676</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P298" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Tamaki at Tamaki Reserve</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0332982456140351</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.03676</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1858298</v>
+      </c>
+      <c r="P299" t="n">
+        <v>5554509</v>
+      </c>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>Upper Tamaki</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>Mana_3</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
+++ b/state_results/Rivers/TamakiatTamakiReserve_fc9384cd78.xlsx
@@ -1631,13 +1631,13 @@
         <v>3.3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.26436941115155</v>
+        <v>3.08623288193791</v>
       </c>
       <c r="H15" t="n">
-        <v>9.036621171581359</v>
+        <v>7.77884451296752</v>
       </c>
       <c r="I15" t="n">
-        <v>7.97382</v>
+        <v>6.4</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1645,10 +1645,10 @@
         <v>4.2</v>
       </c>
       <c r="M15" t="n">
-        <v>5.775</v>
+        <v>5.29206</v>
       </c>
       <c r="N15" t="n">
-        <v>6.71701</v>
+        <v>6.07</v>
       </c>
       <c r="O15" t="n">
         <v>1858298</v>
@@ -2530,13 +2530,13 @@
         <v>3.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3.59580388429999</v>
+        <v>3.57321955951916</v>
       </c>
       <c r="H26" t="n">
-        <v>10.8618889925494</v>
+        <v>10.4204126183408</v>
       </c>
       <c r="I26" t="n">
-        <v>8.530469999999999</v>
+        <v>8.71805</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2544,10 +2544,10 @@
         <v>4.1</v>
       </c>
       <c r="M26" t="n">
-        <v>6.01586</v>
+        <v>5.5</v>
       </c>
       <c r="N26" t="n">
-        <v>6.77901</v>
+        <v>7.65096</v>
       </c>
       <c r="O26" t="n">
         <v>1858298</v>
@@ -3588,16 +3588,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="G39" t="n">
-        <v>3.97521715093374</v>
+        <v>3.87100492531834</v>
       </c>
       <c r="H39" t="n">
-        <v>10.8618889925494</v>
+        <v>10.4204126183408</v>
       </c>
       <c r="I39" t="n">
-        <v>9.149620000000001</v>
+        <v>8.80209</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -3605,10 +3605,10 @@
         <v>4.2</v>
       </c>
       <c r="M39" t="n">
-        <v>6.11476</v>
+        <v>6.019</v>
       </c>
       <c r="N39" t="n">
-        <v>8.402240000000001</v>
+        <v>7.82259</v>
       </c>
       <c r="O39" t="n">
         <v>1858298</v>
@@ -4960,13 +4960,13 @@
         <v>3.4</v>
       </c>
       <c r="G56" t="n">
-        <v>3.73726803785096</v>
+        <v>3.63542427190863</v>
       </c>
       <c r="H56" t="n">
-        <v>10.8618889925494</v>
+        <v>10.4204126183408</v>
       </c>
       <c r="I56" t="n">
-        <v>9.13348</v>
+        <v>8.760070000000001</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -4974,10 +4974,10 @@
         <v>2.75</v>
       </c>
       <c r="M56" t="n">
-        <v>6.10155</v>
+        <v>6.002</v>
       </c>
       <c r="N56" t="n">
-        <v>8.33071</v>
+        <v>7.75327</v>
       </c>
       <c r="O56" t="n">
         <v>1858298</v>
@@ -6410,13 +6410,13 @@
         <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>3.47388506787856</v>
+        <v>3.39090125859222</v>
       </c>
       <c r="H74" t="n">
-        <v>10.8618889925494</v>
+        <v>10.4204126183408</v>
       </c>
       <c r="I74" t="n">
-        <v>8.90165</v>
+        <v>8.362120000000001</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -6424,10 +6424,10 @@
         <v>2.75</v>
       </c>
       <c r="M74" t="n">
-        <v>6.00597</v>
+        <v>5.5</v>
       </c>
       <c r="N74" t="n">
-        <v>7.08933</v>
+        <v>6.73019</v>
       </c>
       <c r="O74" t="n">
         <v>1858298</v>
@@ -8014,13 +8014,13 @@
         <v>2.5</v>
       </c>
       <c r="G94" t="n">
-        <v>3.18906375827401</v>
+        <v>3.30848045790893</v>
       </c>
       <c r="H94" t="n">
-        <v>10.8618889925494</v>
+        <v>10.4204126183408</v>
       </c>
       <c r="I94" t="n">
-        <v>9.200390000000001</v>
+        <v>9.33334</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -8028,10 +8028,10 @@
         <v>2.35</v>
       </c>
       <c r="M94" t="n">
-        <v>4.96678</v>
+        <v>5.06049</v>
       </c>
       <c r="N94" t="n">
-        <v>6.08545</v>
+        <v>9.01454</v>
       </c>
       <c r="O94" t="n">
         <v>1858298</v>
@@ -9695,24 +9695,24 @@
         <v>2.45</v>
       </c>
       <c r="G115" t="n">
-        <v>3.19137757429952</v>
+        <v>3.1009632555313</v>
       </c>
       <c r="H115" t="n">
-        <v>10.0075854000381</v>
+        <v>10.72679388495</v>
       </c>
       <c r="I115" t="n">
-        <v>9.428369999999999</v>
+        <v>9.08868</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>2.21373</v>
+        <v>2.28617</v>
       </c>
       <c r="M115" t="n">
-        <v>4.80698</v>
+        <v>5.05724</v>
       </c>
       <c r="N115" t="n">
-        <v>7.90318</v>
+        <v>7.8707</v>
       </c>
       <c r="O115" t="n">
         <v>1858298</v>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11373,27 +11373,27 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>3.03093</v>
+        <v>2.85274</v>
       </c>
       <c r="G136" t="n">
-        <v>3.97144120582387</v>
+        <v>3.86495233719542</v>
       </c>
       <c r="H136" t="n">
-        <v>14.7112343553842</v>
+        <v>10.8488983596429</v>
       </c>
       <c r="I136" t="n">
-        <v>9.533200000000001</v>
+        <v>10.72679</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>3.5</v>
+        <v>3.29014</v>
       </c>
       <c r="M136" t="n">
-        <v>6.6463</v>
+        <v>6.72</v>
       </c>
       <c r="N136" t="n">
-        <v>8.63198</v>
+        <v>9.457549999999999</v>
       </c>
       <c r="O136" t="n">
         <v>1858298</v>
@@ -13054,27 +13054,27 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4.53179</v>
+        <v>4.12357</v>
       </c>
       <c r="G157" t="n">
-        <v>4.74728410290969</v>
+        <v>4.54036611145928</v>
       </c>
       <c r="H157" t="n">
-        <v>14.8124905959593</v>
+        <v>10.8488983596429</v>
       </c>
       <c r="I157" t="n">
-        <v>10.24277</v>
+        <v>10.72682</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>4.80461</v>
+        <v>4.12357</v>
       </c>
       <c r="M157" t="n">
-        <v>6.86848</v>
+        <v>7.01231</v>
       </c>
       <c r="N157" t="n">
-        <v>9.48686</v>
+        <v>9.619490000000001</v>
       </c>
       <c r="O157" t="n">
         <v>1858298</v>
@@ -14735,27 +14735,27 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4.76897</v>
+        <v>4.4</v>
       </c>
       <c r="G178" t="n">
-        <v>4.99235131282623</v>
+        <v>5.13675689366194</v>
       </c>
       <c r="H178" t="n">
-        <v>14.8124905959593</v>
+        <v>12.8107322130379</v>
       </c>
       <c r="I178" t="n">
-        <v>9.98387</v>
+        <v>10.84282</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>5.42015</v>
+        <v>5.05148</v>
       </c>
       <c r="M178" t="n">
-        <v>7.29096</v>
+        <v>9.03797</v>
       </c>
       <c r="N178" t="n">
-        <v>9.469200000000001</v>
+        <v>10.72699</v>
       </c>
       <c r="O178" t="n">
         <v>1858298</v>
@@ -16416,27 +16416,27 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4.66744</v>
+        <v>4.4499</v>
       </c>
       <c r="G199" t="n">
-        <v>4.81000627133793</v>
+        <v>4.95303541644977</v>
       </c>
       <c r="H199" t="n">
-        <v>14.8124905959593</v>
+        <v>12.8107322130379</v>
       </c>
       <c r="I199" t="n">
-        <v>9.978350000000001</v>
+        <v>10.84282</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>5.00745</v>
+        <v>4.60574</v>
       </c>
       <c r="M199" t="n">
-        <v>7.29096</v>
+        <v>7.08078</v>
       </c>
       <c r="N199" t="n">
-        <v>8.50544</v>
+        <v>10.72699</v>
       </c>
       <c r="O199" t="n">
         <v>1858298</v>
@@ -18097,27 +18097,27 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>4.48146</v>
+        <v>4.42495</v>
       </c>
       <c r="G220" t="n">
-        <v>4.69117591054937</v>
+        <v>4.98888181174391</v>
       </c>
       <c r="H220" t="n">
-        <v>14.8124905959593</v>
+        <v>12.8107322130379</v>
       </c>
       <c r="I220" t="n">
-        <v>9.902150000000001</v>
+        <v>11.04021</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>4.92358</v>
+        <v>5.05148</v>
       </c>
       <c r="M220" t="n">
-        <v>6.77247</v>
+        <v>7.12396</v>
       </c>
       <c r="N220" t="n">
-        <v>7.73718</v>
+        <v>10.69826</v>
       </c>
       <c r="O220" t="n">
         <v>1858298</v>
@@ -19778,27 +19778,27 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>3.29973</v>
+        <v>3.59858</v>
       </c>
       <c r="G241" t="n">
-        <v>3.87747112402952</v>
+        <v>4.39094266963731</v>
       </c>
       <c r="H241" t="n">
-        <v>14.8124905959593</v>
+        <v>12.8107322130379</v>
       </c>
       <c r="I241" t="n">
-        <v>7.73404</v>
+        <v>11.04471</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
-        <v>5.09131</v>
+        <v>3.35029</v>
       </c>
       <c r="M241" t="n">
-        <v>6.00069</v>
+        <v>6.94058</v>
       </c>
       <c r="N241" t="n">
-        <v>7.50879</v>
+        <v>9.24004</v>
       </c>
       <c r="O241" t="n">
         <v>1858298</v>
